--- a/Words.xlsx
+++ b/Words.xlsx
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>relationship </t>
   </si>
   <si>
-    <t xml:space="preserve">تعاملی </t>
-  </si>
-  <si>
     <t>interactions</t>
   </si>
   <si>
@@ -133,31 +130,108 @@
   </si>
   <si>
     <t>تخمینی-برآورد شده</t>
+  </si>
+  <si>
+    <t>galant</t>
+  </si>
+  <si>
+    <t>با سلیقه-برازنده</t>
+  </si>
+  <si>
+    <t>تعاملی-برهم کنش-</t>
+  </si>
+  <si>
+    <t>involved features</t>
+  </si>
+  <si>
+    <t>ویژگی های درگیر</t>
+  </si>
+  <si>
+    <t>smooth curve</t>
+  </si>
+  <si>
+    <t>basis functions</t>
+  </si>
+  <si>
+    <t>توابع پایه ای</t>
+  </si>
+  <si>
+    <t>cross-validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اعتبارسنجی متقاطع </t>
+  </si>
+  <si>
+    <t>منحنی نرم-هموار</t>
+  </si>
+  <si>
+    <t>استنتاج</t>
+  </si>
+  <si>
+    <t>inference</t>
+  </si>
+  <si>
+    <t>significance tests</t>
+  </si>
+  <si>
+    <t>آزمون های معناداری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iid Independent and identically distributed </t>
+  </si>
+  <si>
+    <r>
+      <t>مستقل بودن و توزیع یکسان</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>odds</t>
+  </si>
+  <si>
+    <t>بخت-شانس-احتمال</t>
+  </si>
+  <si>
+    <t>induction</t>
+  </si>
+  <si>
+    <t>القای</t>
+  </si>
+  <si>
+    <t>individual instance</t>
+  </si>
+  <si>
+    <t>نمونه بخصوص-منفرد-خاص</t>
+  </si>
+  <si>
+    <t>splits</t>
+  </si>
+  <si>
+    <t>تقسیمات</t>
+  </si>
+  <si>
+    <t>counterfactuals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -173,8 +247,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF777777"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -199,13 +298,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,181 +586,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B21" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>14</v>
+    </row>
+    <row r="25" spans="1:2" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:B19">
-    <sortCondition ref="A7"/>
+  <sortState ref="A3:B25">
+    <sortCondition ref="A16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Words.xlsx
+++ b/Words.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="354">
   <si>
     <t>relationship </t>
   </si>
@@ -220,12 +222,885 @@
   <si>
     <t>counterfactuals</t>
   </si>
+  <si>
+    <t>decision rule</t>
+  </si>
+  <si>
+    <t>قاعده تصمیم قواعد تصمیم</t>
+  </si>
+  <si>
+    <t>antecedent</t>
+  </si>
+  <si>
+    <t>classifier </t>
+  </si>
+  <si>
+    <t>شرط</t>
+  </si>
+  <si>
+    <t>طبقه بند</t>
+  </si>
+  <si>
+    <t>اسـتقرا</t>
+  </si>
+  <si>
+    <t>rule</t>
+  </si>
+  <si>
+    <t>قوانین</t>
+  </si>
+  <si>
+    <t>experience تجربه</t>
+  </si>
+  <si>
+    <t>recogonize handwritten words تشخیص دستخط</t>
+  </si>
+  <si>
+    <t>well-posed خوش وضع</t>
+  </si>
+  <si>
+    <t>performance کارایی</t>
+  </si>
+  <si>
+    <t>learning یادگیري</t>
+  </si>
+  <si>
+    <t>Task کار</t>
+  </si>
+  <si>
+    <t>Consistent سازگار</t>
+  </si>
+  <si>
+    <t>space version فضاي ویژه</t>
+  </si>
+  <si>
+    <t>Hypothesis فرضیه</t>
+  </si>
+  <si>
+    <t>Specific خاص</t>
+  </si>
+  <si>
+    <t>General کلی</t>
+  </si>
+  <si>
+    <t>training example نمونه آموزشی</t>
+  </si>
+  <si>
+    <t>minimal specialization کلیترین خاص سازيها</t>
+  </si>
+  <si>
+    <t>maximal generalization خاصترین کلی سازيها</t>
+  </si>
+  <si>
+    <t>target concept مفهوم هدف</t>
+  </si>
+  <si>
+    <t>Classify دستهبندي</t>
+  </si>
+  <si>
+    <t>Bias بایاس</t>
+  </si>
+  <si>
+    <t>Negation نقیض</t>
+  </si>
+  <si>
+    <t>Expressive شامل</t>
+  </si>
+  <si>
+    <t>unobserved instance مثال غیر آموزشی</t>
+  </si>
+  <si>
+    <t>inductive bias بایاس استقرایی</t>
+  </si>
+  <si>
+    <t>Entropy آنتروپی</t>
+  </si>
+  <si>
+    <t>information gain بهرهي اطلاعات</t>
+  </si>
+  <si>
+    <t>split information تقسیم اطلاعات</t>
+  </si>
+  <si>
+    <t>information theory تئوري اطلاعات</t>
+  </si>
+  <si>
+    <t>breath first search جستجوي کمعمق</t>
+  </si>
+  <si>
+    <t>Greedy حریصانه</t>
+  </si>
+  <si>
+    <t>decision tree درخت تصمیمگیري</t>
+  </si>
+  <si>
+    <t>validation set دستهي تأیید</t>
+  </si>
+  <si>
+    <t>Subtree زیر درخت</t>
+  </si>
+  <si>
+    <t>Label علامتگذاري</t>
+  </si>
+  <si>
+    <t>Nondeterministic غیرقطعی</t>
+  </si>
+  <si>
+    <t>unobserved instance نمونه غیر آموزشی</t>
+  </si>
+  <si>
+    <t>classification problems مسائل دستهبندي</t>
+  </si>
+  <si>
+    <t>gain ratio نسبت بهره</t>
+  </si>
+  <si>
+    <t>post-prune هرس</t>
+  </si>
+  <si>
+    <t>decision tree learning یادگیري درختی</t>
+  </si>
+  <si>
+    <t>Hyperplane ابر صفحهاي</t>
+  </si>
+  <si>
+    <t>Index اندیس</t>
+  </si>
+  <si>
+    <t>worse case بدترین حالت</t>
+  </si>
+  <si>
+    <t>Excited برانگیخته</t>
+  </si>
+  <si>
+    <t>linear programming برنامهنویسی خطی</t>
+  </si>
+  <si>
+    <t>Bayesian بیزي</t>
+  </si>
+  <si>
+    <t>Network width پهناي شبکه</t>
+  </si>
+  <si>
+    <t>squashing function تابع فشردهساز</t>
+  </si>
+  <si>
+    <t>logistic function تابع منطق</t>
+  </si>
+  <si>
+    <t>Unfolded تا نشده</t>
+  </si>
+  <si>
+    <t>simple-to-complex ترتیب ساده به پیچیده</t>
+  </si>
+  <si>
+    <t>feed-forward تکسویه</t>
+  </si>
+  <si>
+    <t>penalty term جملهي خطا</t>
+  </si>
+  <si>
+    <t>Interpolation درونیابی</t>
+  </si>
+  <si>
+    <t>True درست</t>
+  </si>
+  <si>
+    <t>linearly separable دستهبندي پذیر خطی</t>
+  </si>
+  <si>
+    <t>Artificial neural networks شبکههاي عصبی مصنوعی</t>
+  </si>
+  <si>
+    <t>termination condition شرط پایانی</t>
+  </si>
+  <si>
+    <t>Gradient Descent شیب نزول</t>
+  </si>
+  <si>
+    <t>Incremental gradient descend شیب نزول افزایشی</t>
+  </si>
+  <si>
+    <t>learning rate ضریب یادگیري</t>
+  </si>
+  <si>
+    <t>False غلت</t>
+  </si>
+  <si>
+    <t>Inhibited غیر برانگیخته</t>
+  </si>
+  <si>
+    <t>perceptron rule قانون پرسپترون</t>
+  </si>
+  <si>
+    <t>delta rule قانون دلتا</t>
+  </si>
+  <si>
+    <t>generalization accuracy قدرت تعمیم شبکه</t>
+  </si>
+  <si>
+    <t>Gradient گرادیان</t>
+  </si>
+  <si>
+    <t>Node گره</t>
+  </si>
+  <si>
+    <t>Sequential ماشینهاي ترتیبی</t>
+  </si>
+  <si>
+    <t>validation set مجموعهي تأیید</t>
+  </si>
+  <si>
+    <t>Threshold مقدار آستانه</t>
+  </si>
+  <si>
+    <t>linear unit واحد خطی</t>
+  </si>
+  <si>
+    <t>Edge یال</t>
+  </si>
+  <si>
+    <t>paired tests تستهاي جفت</t>
+  </si>
+  <si>
+    <t>evaluating hypotheses ارزیابی فرضیهها</t>
+  </si>
+  <si>
+    <t>confidence interval بازهي اطمینان</t>
+  </si>
+  <si>
+    <t>estimator bias بایاس تخمین زننده</t>
+  </si>
+  <si>
+    <t>identically distributed به طور یکسان توزیع شدهاند</t>
+  </si>
+  <si>
+    <t>unbiased estimator تخمین زنندهي بدون بایاس</t>
+  </si>
+  <si>
+    <t>sampling theory تئوري نمونهبرداري</t>
+  </si>
+  <si>
+    <t>sample error خطاي نمونهاي</t>
+  </si>
+  <si>
+    <t>true error خطاي واقعی</t>
+  </si>
+  <si>
+    <t>well suited خوشتعریف</t>
+  </si>
+  <si>
+    <t>number of degrees of freedom درجهي آزادي</t>
+  </si>
+  <si>
+    <t>central limit قضیهي حد مرکزي</t>
+  </si>
+  <si>
+    <t>two sided bound مرز دو طرفه</t>
+  </si>
+  <si>
+    <t>one side bound مرز یک طرفه</t>
+  </si>
+  <si>
+    <t>prior probability احتمال اولیه</t>
+  </si>
+  <si>
+    <t>posterior probability احتمال ثانویه</t>
+  </si>
+  <si>
+    <t>cross entropy آنتروپی دورگه</t>
+  </si>
+  <si>
+    <t>equivalent sample size اندازهي نمونهي معادل</t>
+  </si>
+  <si>
+    <t>brute-force بدون شعور</t>
+  </si>
+  <si>
+    <t>Outcome برآمد</t>
+  </si>
+  <si>
+    <t>m estimate m تخمین</t>
+  </si>
+  <si>
+    <t>problem setting تعریف مسئله</t>
+  </si>
+  <si>
+    <t>probability mass جرم احتمال</t>
+  </si>
+  <si>
+    <t>probability density چگالی احتمال</t>
+  </si>
+  <si>
+    <t>bayes optimal classifier دستهبندي کنندهي بهینهي بیز</t>
+  </si>
+  <si>
+    <t>naive Bayes classifier دستهبندي کنندهي سادهي بیز</t>
+  </si>
+  <si>
+    <t>Descendant زیرین</t>
+  </si>
+  <si>
+    <t>bayesian belief networks شبکههاي باور بیزي</t>
+  </si>
+  <si>
+    <t>Maximum A Posteriori فرضیه با حداکثر احتمال</t>
+  </si>
+  <si>
+    <t>joint space فضاي توأم</t>
+  </si>
+  <si>
+    <t>Minimum description length قانون کمترین طول توضیح</t>
+  </si>
+  <si>
+    <t>Gibbs algorithm الگوریتم گیبس</t>
+  </si>
+  <si>
+    <t>maximum likelihood محتملترین</t>
+  </si>
+  <si>
+    <t>Criterion معیار</t>
+  </si>
+  <si>
+    <t>consistent learner یادگیر سازگار</t>
+  </si>
+  <si>
+    <t>Arc یال</t>
+  </si>
+  <si>
+    <t>Bernoulli trial آزمایش برنولی</t>
+  </si>
+  <si>
+    <t>pool of prediction algorithms استخري از الگوریتمهاي پیشبینی</t>
+  </si>
+  <si>
+    <t>Computational complexity پیچیدگی محاسباتی</t>
+  </si>
+  <si>
+    <t>Sample complexity پیچیدگی نمونهاي</t>
+  </si>
+  <si>
+    <t>G-composition G ترکیب</t>
+  </si>
+  <si>
+    <t>exponential توانی</t>
+  </si>
+  <si>
+    <t>mistake bound framework چارچوب کران خطا</t>
+  </si>
+  <si>
+    <t>framework چهارچوب</t>
+  </si>
+  <si>
+    <t>probably approximately correct (PAC) چهارچوب تقریباً درست</t>
+  </si>
+  <si>
+    <t>shattering a set of instances خرد کردن مجموعهاي از نمونهها</t>
+  </si>
+  <si>
+    <t>training error خطاي آموزشی</t>
+  </si>
+  <si>
+    <t>True Error خطاي واقعی</t>
+  </si>
+  <si>
+    <t>Exact دقیق</t>
+  </si>
+  <si>
+    <t>k-term disjunctive normal form (k-term DNF) جملهاي k فرم نرمال فصلی</t>
+  </si>
+  <si>
+    <t>PAC-learnability PAC قابلیت یادگیري</t>
+  </si>
+  <si>
+    <t>directed acyclic گراف جهتدار بدون دور</t>
+  </si>
+  <si>
+    <t>layered graph گراف لایهاي</t>
+  </si>
+  <si>
+    <t>probably approximately correct (PAC) مدل یادگیري تقریباً درست</t>
+  </si>
+  <si>
+    <t>wose-case bound مرز بدترین حالت ممکن</t>
+  </si>
+  <si>
+    <t>Mistake bound مرز خطا</t>
+  </si>
+  <si>
+    <t>Hoeffding bounds Hoeffding مرزهاي</t>
+  </si>
+  <si>
+    <t>Hoeffding additive bounds Hoeffding مرزهاي اضافی</t>
+  </si>
+  <si>
+    <t>cross-validation ارزیابی</t>
+  </si>
+  <si>
+    <t>distance-weighted وزندار متناسب با فاصله</t>
+  </si>
+  <si>
+    <t>Residual باقیمانده</t>
+  </si>
+  <si>
+    <t>Regression برازش</t>
+  </si>
+  <si>
+    <t>locally weighted regression برازش وزندار محلی</t>
+  </si>
+  <si>
+    <t>radial basis function تابع پایهاي شعاعی</t>
+  </si>
+  <si>
+    <t>Kernel function تابع هسته</t>
+  </si>
+  <si>
+    <t>statistical pattern recognition تشخیص الگو آماري</t>
+  </si>
+  <si>
+    <t>Lasy تنبل</t>
+  </si>
+  <si>
+    <t>Cases حالات</t>
+  </si>
+  <si>
+    <t>curse of dimensionality طلسم بعد</t>
+  </si>
+  <si>
+    <t>Eager کوشا</t>
+  </si>
+  <si>
+    <t>Nearest neighbor algorithm الگوریتم نزدیکترین همسایه</t>
+  </si>
+  <si>
+    <t>clustering algorithms الگوریتمهاي خوشه یابی</t>
+  </si>
+  <si>
+    <t>Cased-Based مبتنی بر شرایط</t>
+  </si>
+  <si>
+    <t>global method متد جهانی</t>
+  </si>
+  <si>
+    <t>local method متد محلی</t>
+  </si>
+  <si>
+    <t>Nearest Neighber نزدیکترین همسایه</t>
+  </si>
+  <si>
+    <t>Voronoi diagram نمودار ورونوي مجموعهي نمونههاي آموزشی</t>
+  </si>
+  <si>
+    <t>Isomorphism همشکل</t>
+  </si>
+  <si>
+    <t>instance based learning یادگیري مبتنی بر نمونهه</t>
+  </si>
+  <si>
+    <t>Baldwin effect اثر بالدوین</t>
+  </si>
+  <si>
+    <t>fitness sharing اشتراك تناسب</t>
+  </si>
+  <si>
+    <t>rank selection انتخاب رتبهاي</t>
+  </si>
+  <si>
+    <t>tournament selection انتخاب مسابقهاي</t>
+  </si>
+  <si>
+    <t>fitness proportionate selection انتخاب نسبی تناسبی</t>
+  </si>
+  <si>
+    <t>job-shop scheduling برنامهریزي مغازهداري</t>
+  </si>
+  <si>
+    <t>genetic programming برنامهنویسی ژنتیک</t>
+  </si>
+  <si>
+    <t>defined bits بیتهاي معلوم</t>
+  </si>
+  <si>
+    <t>fitness function تابع تناسب</t>
+  </si>
+  <si>
+    <t>Crowding تراکم</t>
+  </si>
+  <si>
+    <t>Terminal ترمینال</t>
+  </si>
+  <si>
+    <t>Fitness تناسب</t>
+  </si>
+  <si>
+    <t>Survivability مقاومت</t>
+  </si>
+  <si>
+    <t>crossover, offspring تولیدمثل</t>
+  </si>
+  <si>
+    <t>single-point crossover تولیدمثل تک نقطهاي</t>
+  </si>
+  <si>
+    <t>uniform crossover تولیدمثل یکنواخت</t>
+  </si>
+  <si>
+    <t>Schema Theorem تئوري الگو</t>
+  </si>
+  <si>
+    <t>beam search جستجویی ستونی</t>
+  </si>
+  <si>
+    <t>Population جمعیت</t>
+  </si>
+  <si>
+    <t>Mutation جهش</t>
+  </si>
+  <si>
+    <t>sets of rules, classification rules دسته قوانین</t>
+  </si>
+  <si>
+    <t>Substring زیررشته</t>
+  </si>
+  <si>
+    <t>Subspecies زیرگونهها</t>
+  </si>
+  <si>
+    <t>circuit layout طراحی مدار</t>
+  </si>
+  <si>
+    <t>disjunctive set of propositional rules قانونهاي فصلی گزارهاي</t>
+  </si>
+  <si>
+    <t>Constraint شرط</t>
+  </si>
+  <si>
+    <t>Schema, pattern الگو</t>
+  </si>
+  <si>
+    <t>Genetic algorithms الگوریتمهاي ژنتیک</t>
+  </si>
+  <si>
+    <t>evolutionary computation محاسبات تکاملی</t>
+  </si>
+  <si>
+    <t>simple fixed seed circuit مدارات پایهاي</t>
+  </si>
+  <si>
+    <t>Markov chain models مدلهاي زنجیروار مارکوف</t>
+  </si>
+  <si>
+    <t>crowding problem مشکل تراکم</t>
+  </si>
+  <si>
+    <t>symbolic expressions نشانههاي نمادین</t>
+  </si>
+  <si>
+    <t>crossover mask نقاب تولیدمثل</t>
+  </si>
+  <si>
+    <t>Genetic makeup نقشهي ژنتیکی</t>
+  </si>
+  <si>
+    <t>symbolic expressions نمایش نمادین</t>
+  </si>
+  <si>
+    <t>machine learning یادگیري ماشین</t>
+  </si>
+  <si>
+    <t>first-order horn clase درجه اول horn clause</t>
+  </si>
+  <si>
+    <t>inductive logic programming (ILG) برنامهنویسی منطقی</t>
+  </si>
+  <si>
+    <t>inductive logic programming برنامهنویسی استقرایی منطقی</t>
+  </si>
+  <si>
+    <t>simultaneous covering پوشش همزمان</t>
+  </si>
+  <si>
+    <t>Implementing تعریف</t>
+  </si>
+  <si>
+    <t>relative frequency تکرار نسبی</t>
+  </si>
+  <si>
+    <t>mechanical theorem provers ثابتکنندهي تئوري</t>
+  </si>
+  <si>
+    <t>beam search جستجوي ستونی</t>
+  </si>
+  <si>
+    <t>Clause, postcondition حکم</t>
+  </si>
+  <si>
+    <t>sets of rules دسته قوانین</t>
+  </si>
+  <si>
+    <t>Resolution دقت</t>
+  </si>
+  <si>
+    <t>propositional representation روشهاي گزارهاي</t>
+  </si>
+  <si>
+    <t>Syntax زبان</t>
+  </si>
+  <si>
+    <t>Subroutine زیر روال</t>
+  </si>
+  <si>
+    <t>Precondition شرط</t>
+  </si>
+  <si>
+    <t>Literal عبارت</t>
+  </si>
+  <si>
+    <t>deductive operator عملگرهاي نتیجهگیري</t>
+  </si>
+  <si>
+    <t>Expressive قابلیت بیان</t>
+  </si>
+  <si>
+    <t>Expressive قويتر در بیان</t>
+  </si>
+  <si>
+    <t>Performance کارایی</t>
+  </si>
+  <si>
+    <t>example driven کنترل نمونهاي</t>
+  </si>
+  <si>
+    <t>covering الگوریتم پوششی</t>
+  </si>
+  <si>
+    <t>sequential covering algorithms الگوریتمهاي ترتیبی</t>
+  </si>
+  <si>
+    <t>candidate ممکن</t>
+  </si>
+  <si>
+    <t>first order logic منطق درجه اول</t>
+  </si>
+  <si>
+    <t>backtrack نگاه به مرحلههاي قبلی</t>
+  </si>
+  <si>
+    <t>predicate symbol نمادهاي گزارهاي</t>
+  </si>
+  <si>
+    <t>propositional representation نمایشهاي گزارهاي</t>
+  </si>
+  <si>
+    <t>Speedup افزایش سرعت</t>
+  </si>
+  <si>
+    <t>speed up complex search programs افزایش سرعت جستجوي برنامههاي پیچیده تعیین</t>
+  </si>
+  <si>
+    <t>Incremental افزایشی</t>
+  </si>
+  <si>
+    <t>Leaf nodes برگ</t>
+  </si>
+  <si>
+    <t>Planner برنامهریز</t>
+  </si>
+  <si>
+    <t>planning and schedualing برنامهریزي و انجام</t>
+  </si>
+  <si>
+    <t>inductive logic programming برنامهنویسی منطقی استقرایی</t>
+  </si>
+  <si>
+    <t>deductive closure بستگی استنتاجی</t>
+  </si>
+  <si>
+    <t>Regress پس راندن</t>
+  </si>
+  <si>
+    <t>utility analysis تحلیل تأثیر قوانین</t>
+  </si>
+  <si>
+    <t>Determination تعیین</t>
+  </si>
+  <si>
+    <t>Lazy تنبل</t>
+  </si>
+  <si>
+    <t>Justification توجیه</t>
+  </si>
+  <si>
+    <t>domain theory تئوري قلمرو</t>
+  </si>
+  <si>
+    <t>backward chaining search جستجوي زنجیروار معکوس</t>
+  </si>
+  <si>
+    <t>Match جفت کردن</t>
+  </si>
+  <si>
+    <t>problem solver حلال مسئله</t>
+  </si>
+  <si>
+    <t>Autonomous خودکار</t>
+  </si>
+  <si>
+    <t>proof tree درختهاي اثبات</t>
+  </si>
+  <si>
+    <t>Correct درست</t>
+  </si>
+  <si>
+    <t>Subgoal زیر هدف</t>
+  </si>
+  <si>
+    <t>weakest preimage ضعیفترین پیشنویس</t>
+  </si>
+  <si>
+    <t>Irrevelant غیر مرتبط</t>
+  </si>
+  <si>
+    <t>Assertion فرضها</t>
+  </si>
+  <si>
+    <t>state-space فضاي وضعیتی</t>
+  </si>
+  <si>
+    <t>Constraint قید</t>
+  </si>
+  <si>
+    <t>Perfect کامل</t>
+  </si>
+  <si>
+    <t>knowledge compilation گرداوري دانش</t>
+  </si>
+  <si>
+    <t>sequential covering algorithm الگوریتم ترتیبی</t>
+  </si>
+  <si>
+    <t>Superset مجموعه توانیاي</t>
+  </si>
+  <si>
+    <t>Relevant مرتبط</t>
+  </si>
+  <si>
+    <t>search-intensive planning and optimization مسائل متمرکز بر جستجوي برنامهریزي و بهینهسازي</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>domain-independent مستقل از قلمرو</t>
+  </si>
+  <si>
+    <t>Logical منطقی</t>
+  </si>
+  <si>
+    <t>negation-as-failure منفی در زمان شکست</t>
+  </si>
+  <si>
+    <t>Feature ویژگی</t>
+  </si>
+  <si>
+    <t>means-ends هدفهاي میانی</t>
+  </si>
+  <si>
+    <t>Complete همهجانبه</t>
+  </si>
+  <si>
+    <t>analytical learning یادگیري تحلیلی</t>
+  </si>
+  <si>
+    <t>explanation-based learning (ELB) یادگیري توضیحی</t>
+  </si>
+  <si>
+    <t>knowledge level learning یادگیري مرتبهي دانش</t>
+  </si>
+  <si>
+    <t>macro-operators عملگرهاي کلی</t>
+  </si>
+  <si>
+    <t>Expoit استفاده از دانستهها براي به دست آوردن پاداش</t>
+  </si>
+  <si>
+    <t>Action اعمال</t>
+  </si>
+  <si>
+    <t>board games بازيهاي صفحهاي</t>
+  </si>
+  <si>
+    <t>dynamic programming برنامهنویسی پویا</t>
+  </si>
+  <si>
+    <t>delayed reward پاداش تأخیري</t>
+  </si>
+  <si>
+    <t>discounted cumulative reward پاداش تجمعی تخفیفی</t>
+  </si>
+  <si>
+    <t>imidiate reward پاداش لحظهاي</t>
+  </si>
+  <si>
+    <t>reward function تابع پاداش</t>
+  </si>
+  <si>
+    <t>cumulative تجمعی</t>
+  </si>
+  <si>
+    <t>discount factor ثابت تخفیف</t>
+  </si>
+  <si>
+    <t>Exploration جستجوي محیط</t>
+  </si>
+  <si>
+    <t>Explore جستجوي محیط</t>
+  </si>
+  <si>
+    <t>Policy خطمشی</t>
+  </si>
+  <si>
+    <t>optimal policy خطمشی بهینه</t>
+  </si>
+  <si>
+    <t>nondeterministic Markov decision process فرایند تصمیمگیري غیرقطعی مارکوف</t>
+  </si>
+  <si>
+    <t>Agent عامل</t>
+  </si>
+  <si>
+    <t>Domain قلمرو</t>
+  </si>
+  <si>
+    <t>Deterministic قطعی</t>
+  </si>
+  <si>
+    <t>temporal difference algorithms الگوریتمهاي کاهش اختلاف ارزشها</t>
+  </si>
+  <si>
+    <t>average reward متوسط پاداش</t>
+  </si>
+  <si>
+    <t>Envirement محیط</t>
+  </si>
+  <si>
+    <t>Trainer مربی</t>
+  </si>
+  <si>
+    <t>temporal credit assignment نسبت دادن ارزش موقتی</t>
+  </si>
+  <si>
+    <t>State حالت</t>
+  </si>
+  <si>
+    <t>absorbing state حالت جاذب</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +1152,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -298,7 +1186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -306,6 +1194,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,10 +1476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -734,7 +1624,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
@@ -742,7 +1632,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
@@ -750,7 +1640,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4" t="s">
         <v>8</v>
       </c>
@@ -758,7 +1648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -766,7 +1656,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -774,7 +1664,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4" t="s">
         <v>0</v>
       </c>
@@ -782,7 +1672,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
@@ -790,7 +1680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
@@ -798,7 +1688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4" t="s">
         <v>42</v>
       </c>
@@ -806,7 +1696,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
@@ -814,7 +1704,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4" t="s">
         <v>52</v>
       </c>
@@ -822,7 +1712,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4" t="s">
         <v>54</v>
       </c>
@@ -830,15 +1720,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="5" t="s">
         <v>58</v>
       </c>
@@ -846,7 +1739,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="6" t="s">
         <v>60</v>
       </c>
@@ -854,9 +1747,41 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -866,4 +1791,3014 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A297"/>
+  <sheetViews>
+    <sheetView topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="A256" sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A6">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A297"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A297">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Words.xlsx
+++ b/Words.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="358">
   <si>
     <t>relationship </t>
   </si>
@@ -1095,12 +1096,24 @@
   <si>
     <t>absorbing state حالت جاذب</t>
   </si>
+  <si>
+    <t>indicator function</t>
+  </si>
+  <si>
+    <t>تابع نشانگر</t>
+  </si>
+  <si>
+    <t>association rules</t>
+  </si>
+  <si>
+    <t>قوانین وابستگی</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1165,6 +1178,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1186,7 +1211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1196,6 +1221,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1476,10 +1503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1782,6 +1809,14 @@
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -1798,7 +1833,7 @@
   <dimension ref="A1:A297"/>
   <sheetViews>
     <sheetView topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="A256" sqref="A1:A1048576"/>
+      <selection activeCell="C264" sqref="C264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3300,8 +3335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A297"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4801,4 +4836,32 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Words.xlsx
+++ b/Words.xlsx
@@ -212,9 +212,6 @@
     <t>individual instance</t>
   </si>
   <si>
-    <t>نمونه بخصوص-منفرد-خاص</t>
-  </si>
-  <si>
     <t>splits</t>
   </si>
   <si>
@@ -1107,6 +1104,9 @@
   </si>
   <si>
     <t>قوانین وابستگی</t>
+  </si>
+  <si>
+    <t>نمونه بخصوص-منفرد-خاص-جداگانه</t>
   </si>
 </sst>
 </file>
@@ -1505,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1755,7 +1755,7 @@
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="22.5" x14ac:dyDescent="0.55000000000000004">
@@ -1763,60 +1763,60 @@
         <v>58</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>59</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -1840,1487 +1840,1487 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3346,1487 +3346,1487 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4854,10 +4854,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1" t="s">
         <v>356</v>
-      </c>
-      <c r="B1" t="s">
-        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/Words.xlsx
+++ b/Words.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1172,13 +1172,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
@@ -1189,6 +1182,12 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1505,7 +1504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -1812,7 +1811,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>353</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -3333,1507 +3332,1215 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A297"/>
+  <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="1" max="4" width="9.140625" style="10"/>
+    <col min="5" max="5" width="9.7109375" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="F1" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="F2" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="F3" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="F4" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="F5" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="F6" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="F7" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="F8" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="F9" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="F10" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="F11" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="F12" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="F13" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="F14" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="F15" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="F16" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="F17" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="F18" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="F19" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="F20" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="F21" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="F22" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="F23" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="F24" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+      <c r="F25" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="F26" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="F27" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+      <c r="F28" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="F29" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+      <c r="F30" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+      <c r="F31" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+      <c r="F32" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+      <c r="F33" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+      <c r="F34" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="F35" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+      <c r="F36" s="10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+      <c r="F37" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
+      <c r="F38" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+      <c r="F39" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
+      <c r="F40" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
+      <c r="F41" s="10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
+      <c r="F42" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
+      <c r="F43" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
+      <c r="F44" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
+      <c r="F45" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
+      <c r="F46" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
+      <c r="F47" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
+      <c r="F48" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="s">
+      <c r="F49" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
+      <c r="F50" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
+      <c r="F51" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
+      <c r="F52" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
+      <c r="F53" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
+      <c r="F54" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="8" t="s">
+      <c r="F55" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="8" t="s">
+      <c r="F56" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
+      <c r="F57" s="10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="8" t="s">
+      <c r="F58" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="s">
+      <c r="F59" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="s">
+      <c r="F60" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="s">
+      <c r="F61" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="8" t="s">
+      <c r="F62" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="8" t="s">
+      <c r="F63" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
+      <c r="F64" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="8" t="s">
+      <c r="F65" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="8" t="s">
+      <c r="F66" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="8" t="s">
+      <c r="F67" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="8" t="s">
+      <c r="F68" s="10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="8" t="s">
+      <c r="F69" s="10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="8" t="s">
+      <c r="F70" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="8" t="s">
+      <c r="F71" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="8" t="s">
+      <c r="F72" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="8" t="s">
+      <c r="F73" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="8" t="s">
+      <c r="F74" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="8" t="s">
+      <c r="F75" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="8" t="s">
+      <c r="F76" s="10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="8" t="s">
+      <c r="F77" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="10" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="8" t="s">
+      <c r="F78" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="10" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="8" t="s">
+      <c r="F79" s="10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="8" t="s">
+      <c r="F80" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="10" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="8" t="s">
+      <c r="F81" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="8" t="s">
+      <c r="F82" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="8" t="s">
+      <c r="F83" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="8" t="s">
+      <c r="F84" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="10" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="8" t="s">
+      <c r="F85" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="10" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="8" t="s">
+      <c r="F86" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="8" t="s">
+      <c r="F87" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="10" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="8" t="s">
+      <c r="F88" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="10" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="8" t="s">
+      <c r="F89" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="10" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="8" t="s">
+      <c r="F90" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="10" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="8" t="s">
+      <c r="F91" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="10" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="8" t="s">
+      <c r="F92" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="10" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="8" t="s">
+      <c r="F93" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="10" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="8" t="s">
+      <c r="F94" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="10" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="8" t="s">
+      <c r="F95" s="10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="10" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="8" t="s">
+      <c r="F96" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="10" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="8" t="s">
+      <c r="F97" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="10" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="8" t="s">
+      <c r="F98" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="10" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="8" t="s">
+      <c r="F99" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="10" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="8" t="s">
+      <c r="F100" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="10" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="8" t="s">
+      <c r="F101" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="10" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="8" t="s">
+      <c r="F102" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="10" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="8" t="s">
+      <c r="F103" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="10" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="8" t="s">
+      <c r="F104" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="8" t="s">
+      <c r="F105" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="8" t="s">
+      <c r="F106" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="10" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="8" t="s">
+      <c r="F107" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="10" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="8" t="s">
+      <c r="F108" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="10" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="8" t="s">
+      <c r="F109" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="10" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="8" t="s">
+      <c r="F110" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="10" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="8" t="s">
+      <c r="F111" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="10" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="8" t="s">
+      <c r="F112" s="10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="10" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="8" t="s">
+      <c r="F113" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="10" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="8" t="s">
+      <c r="F114" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="10" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="8" t="s">
+      <c r="F115" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="10" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="8" t="s">
+      <c r="F116" s="10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="10" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="8" t="s">
+      <c r="F117" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="10" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="8" t="s">
+      <c r="F118" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="10" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="8" t="s">
+      <c r="F119" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="10" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="8" t="s">
+      <c r="F120" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="10" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="8" t="s">
+      <c r="F121" s="10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="10" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="8" t="s">
+      <c r="F122" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="10" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="8" t="s">
+      <c r="F123" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="10" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="8" t="s">
+      <c r="F124" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="10" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="8" t="s">
+      <c r="F125" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="10" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="8" t="s">
+      <c r="F126" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="10" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="8" t="s">
+      <c r="F127" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="10" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="8" t="s">
+      <c r="F128" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="10" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="8" t="s">
+      <c r="F129" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="10" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="8" t="s">
+      <c r="F130" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="10" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="8" t="s">
+      <c r="F131" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="10" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="8" t="s">
+      <c r="F132" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="8" t="s">
+      <c r="F133" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="10" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="8" t="s">
+      <c r="F134" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="10" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="8" t="s">
+      <c r="F135" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="10" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="8" t="s">
+      <c r="F136" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="10" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="8" t="s">
+      <c r="F137" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="10" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="8" t="s">
+      <c r="F138" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="10" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="8" t="s">
+      <c r="F139" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="10" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="8" t="s">
+      <c r="F140" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="10" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="8" t="s">
+      <c r="F141" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="10" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" s="8" t="s">
+      <c r="F142" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="10" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="8" t="s">
+      <c r="F143" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="10" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="8" t="s">
+      <c r="F144" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="10" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="8" t="s">
+      <c r="F145" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="8" t="s">
+      <c r="F146" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="10" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="8" t="s">
+      <c r="F147" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="10" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="8" t="s">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="10" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="8" t="s">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="10" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="8" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="8" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="8" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" s="8" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="8" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" s="8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" s="8" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" s="8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" s="8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" s="8" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" s="8" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" s="8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" s="8" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" s="8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" s="8" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" s="8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" s="8" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" s="8" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A242" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A245" s="8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250" s="8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251" s="8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254" s="8" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255" s="8" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A256" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A257" s="8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A258" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A259" s="8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A260" s="8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A261" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A262" s="8" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A263" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A264" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A265" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A266" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A267" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A268" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A269" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A270" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A271" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A272" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A273" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A274" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A275" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A276" s="8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A277" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A278" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A279" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A280" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A281" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A282" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A283" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A284" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A285" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A286" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A287" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A288" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A289" s="8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A290" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A291" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A292" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A293" s="8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A294" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A295" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A296" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A297" s="8" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A1:A297">
     <sortCondition ref="A1"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.55118110236220474" right="0.27559055118110237" top="0.47244094488188981" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -4853,7 +4560,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>355</v>
       </c>
       <c r="B1" t="s">
